--- a/Data Alumni pelatihan phiton.xlsx
+++ b/Data Alumni pelatihan phiton.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-320" yWindow="2740" windowWidth="25220" windowHeight="11700"/>
+    <workbookView xWindow="320" yWindow="640" windowWidth="25220" windowHeight="11700" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="231">
   <si>
     <t>Nim</t>
   </si>
@@ -1012,7 +1013,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1120,12 +1121,45 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1133,34 +1167,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1466,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1499,70 +1512,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
       <c r="W1" s="41"/>
     </row>
     <row r="2" spans="1:24" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="M3" s="45" t="s">
+      <c r="M3" s="56" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="53" t="s">
@@ -1583,19 +1596,19 @@
       <c r="U3" s="55"/>
     </row>
     <row r="4" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="46"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="57"/>
       <c r="N4" s="7" t="s">
         <v>106</v>
       </c>
@@ -1650,7 +1663,7 @@
       <c r="J5" s="6">
         <v>2.4</v>
       </c>
-      <c r="K5" s="56">
+      <c r="K5" s="44">
         <v>1475634.6153846199</v>
       </c>
       <c r="L5" s="6">
@@ -1703,7 +1716,7 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="56"/>
+      <c r="K6" s="44"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
@@ -1752,7 +1765,7 @@
       <c r="J7" s="2">
         <v>2.4</v>
       </c>
-      <c r="K7" s="56">
+      <c r="K7" s="44">
         <v>1475634.6153846199</v>
       </c>
       <c r="L7" s="2"/>
@@ -1804,7 +1817,7 @@
       <c r="J8" s="2">
         <v>2.4</v>
       </c>
-      <c r="K8" s="56">
+      <c r="K8" s="44">
         <v>1475634</v>
       </c>
       <c r="L8" s="2">
@@ -1858,7 +1871,7 @@
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="56"/>
+      <c r="K9" s="44"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2" t="s">
@@ -1908,7 +1921,7 @@
       <c r="J10" s="2">
         <v>2.4</v>
       </c>
-      <c r="K10" s="56">
+      <c r="K10" s="44">
         <v>1475634.6153846199</v>
       </c>
       <c r="L10" s="2">
@@ -1960,7 +1973,7 @@
       <c r="J11" s="2">
         <v>2.4</v>
       </c>
-      <c r="K11" s="56">
+      <c r="K11" s="44">
         <v>1475634.6153846155</v>
       </c>
       <c r="L11" s="2">
@@ -2010,7 +2023,7 @@
       <c r="J12" s="2">
         <v>2.4</v>
       </c>
-      <c r="K12" s="56">
+      <c r="K12" s="44">
         <v>1475634.6153846199</v>
       </c>
       <c r="L12" s="2">
@@ -2069,7 +2082,7 @@
       <c r="J13" s="2">
         <v>0</v>
       </c>
-      <c r="K13" s="56">
+      <c r="K13" s="44">
         <v>600000</v>
       </c>
       <c r="L13" s="2">
@@ -2125,7 +2138,7 @@
       <c r="J14" s="2">
         <v>2.4</v>
       </c>
-      <c r="K14" s="56">
+      <c r="K14" s="44">
         <v>1475634.6153846155</v>
       </c>
       <c r="L14" s="2">
@@ -2181,7 +2194,7 @@
       <c r="J15" s="2">
         <v>2.4</v>
       </c>
-      <c r="K15" s="56">
+      <c r="K15" s="44">
         <v>1200000</v>
       </c>
       <c r="L15" s="2">
@@ -2239,7 +2252,7 @@
       <c r="J16" s="2">
         <v>2.4</v>
       </c>
-      <c r="K16" s="56">
+      <c r="K16" s="44">
         <v>1475634.6153846199</v>
       </c>
       <c r="L16" s="2">
@@ -2295,7 +2308,7 @@
       <c r="J17" s="2">
         <v>2.4</v>
       </c>
-      <c r="K17" s="56">
+      <c r="K17" s="44">
         <v>1475634.6153846155</v>
       </c>
       <c r="L17" s="2">
@@ -2351,7 +2364,7 @@
       <c r="J18" s="2">
         <v>2.4</v>
       </c>
-      <c r="K18" s="56">
+      <c r="K18" s="44">
         <v>1475634.6153846155</v>
       </c>
       <c r="L18" s="2">
@@ -2409,7 +2422,7 @@
       <c r="J19" s="2">
         <v>1</v>
       </c>
-      <c r="K19" s="56">
+      <c r="K19" s="44">
         <v>1500000</v>
       </c>
       <c r="L19" s="2">
@@ -2467,7 +2480,7 @@
       <c r="J20" s="2">
         <v>0</v>
       </c>
-      <c r="K20" s="56">
+      <c r="K20" s="44">
         <v>750000</v>
       </c>
       <c r="L20" s="2">
@@ -2496,10 +2509,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A1:U1"/>
@@ -2514,6 +2523,10 @@
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2524,7 +2537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -3426,40 +3439,40 @@
   <sheetData>
     <row r="1" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="56" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="53" t="s">
@@ -3483,18 +3496,18 @@
       <c r="A3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="46"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="57"/>
       <c r="N3" s="7" t="s">
         <v>106</v>
       </c>
@@ -3599,4 +3612,686 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="43" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>9018263</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2016</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="K2" s="44">
+        <v>1475634.6153846199</v>
+      </c>
+      <c r="L2" s="2">
+        <v>390</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>12022030</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2016</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>12020021</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="60"/>
+      <c r="G4" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2016</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="K4" s="44">
+        <v>1475634.6153846199</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>9018269</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2016</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="K5" s="44">
+        <v>1475634</v>
+      </c>
+      <c r="L5" s="2">
+        <v>413</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>9018109</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2016</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>9020026</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2016</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="K7" s="44">
+        <v>1475634.6153846199</v>
+      </c>
+      <c r="L7" s="2">
+        <v>400</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>12018060</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2016</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="K8" s="44">
+        <v>1475634.6153846155</v>
+      </c>
+      <c r="L8" s="2">
+        <v>396</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>11018022</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2011</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2016</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="K9" s="44">
+        <v>1475634.6153846199</v>
+      </c>
+      <c r="L9" s="2">
+        <v>460</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9018212</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2016</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="44">
+        <v>600000</v>
+      </c>
+      <c r="L10" s="2">
+        <v>403</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>9018301</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2016</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="K11" s="44">
+        <v>1475634.6153846155</v>
+      </c>
+      <c r="L11" s="2">
+        <v>450</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>12022020</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2016</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="K12" s="44">
+        <v>1200000</v>
+      </c>
+      <c r="L12" s="2">
+        <v>423</v>
+      </c>
+      <c r="M12" s="2">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>12022038</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2016</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="K13" s="44">
+        <v>1475634.6153846199</v>
+      </c>
+      <c r="L13" s="2">
+        <v>413</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>12019039</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2016</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="K14" s="44">
+        <v>1475634.6153846155</v>
+      </c>
+      <c r="L14" s="2">
+        <v>480</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>11018111</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2011</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2016</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="K15" s="44">
+        <v>1475634.6153846155</v>
+      </c>
+      <c r="L15" s="2">
+        <v>406</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>9018135</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2016</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="44">
+        <v>1500000</v>
+      </c>
+      <c r="L16" s="2">
+        <v>423</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>12018161</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2016</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="44">
+        <v>750000</v>
+      </c>
+      <c r="L17" s="2">
+        <v>400</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>